--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>383269.5528422359</v>
+        <v>381381.9713258345</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>377.4741460190476</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>209.4358303503865</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>70.03418953492981</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>54.66509595813641</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.7169362854108</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>163.5306746795026</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>99.90991062876957</v>
+        <v>99.660750746876</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>244.3243799685264</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>114.7730200229821</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14.86965341517841</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>267.1906889953266</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498019</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.911519871443938</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185851</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1661384044142235</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>94.16481274941255</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>85.90203508195395</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847137</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>87.47847194725594</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,10 +2296,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>94.16481274941179</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,7 +2333,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274077</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.459896748109215</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>2.496989041814122</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>75.76139154728354</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>59.77945773664946</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>42.20569823125479</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571489</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>119.7395168926576</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235377</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898778</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
         <v>80.48358288857169</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9071733620849</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9071733620849</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D2" t="n">
-        <v>595.6414747553345</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E2" t="n">
-        <v>595.6414747553345</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>588.695974006131</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304456</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>1344.046505337897</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9071733620849</v>
+        <v>1901.622914804502</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4416,43 +4416,43 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.1602504649467</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="C4" t="n">
-        <v>109.1602504649467</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>109.1602504649467</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>109.1602504649467</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>109.1602504649467</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>109.1602504649467</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951864</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951864</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>290.8087152951864</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X4" t="n">
-        <v>290.8087152951864</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.8087152951864</v>
+        <v>124.6845874112026</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1579.049931616194</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>540.104522034783</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>540.104522034783</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>533.1590212855796</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>519.2356172241705</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>192.0408972601733</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2355.789103656128</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>2355.789103656128</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y5" t="n">
-        <v>1965.649771680316</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4662,25 +4662,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.7751770479794</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="C7" t="n">
-        <v>302.7751770479794</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782191</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782191</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782191</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782191</v>
+        <v>154.6104068172089</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.315630222944</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1469.698544874887</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1111.432846268137</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>725.6445936698926</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>718.6990929206892</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>300.735284818876</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2581.216747560665</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2581.216747560665</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.454962198756</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.454962198756</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.454962198756</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.454962198756</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.315630222944</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4887,37 +4887,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>68.96283375488809</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>68.96283375488809</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W10" t="n">
-        <v>428.8224802162921</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>250.6112985851278</v>
       </c>
     </row>
     <row r="11">
@@ -5024,40 +5024,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207314</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1494.965240384727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1494.965240384727</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1494.965240384727</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1205.836601598285</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1205.836601598285</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>916.4194315613242</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>688.4298806633069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>688.4298806633069</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.8029164824579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.8029164824579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.8029164824579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.8029164824579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.8029164824579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.8029164824579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.38490803040122</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609661</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609661</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W16" t="n">
-        <v>696.5850465240054</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>468.5954956259881</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.8029164824579</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5601,16 +5601,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.0396462065429</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>334.103463278636</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>183.9868238663001</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>183.9868238663001</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>183.9868238663001</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>183.9868238663001</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5677,7 +5677,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.063975947119</v>
@@ -5704,19 +5704,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045602</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>503.0396462065429</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.0396462065429</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5729,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,31 +5768,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>180.0505168052655</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>329.1202010073254</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>943.017270764214</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>465.2890973945339</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471188</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119727</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909233</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227911</v>
+        <v>675.0071030383434</v>
       </c>
       <c r="V22" t="n">
-        <v>874.9271131227911</v>
+        <v>420.3226148324566</v>
       </c>
       <c r="W22" t="n">
-        <v>874.9271131227911</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>646.9375622247737</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>646.9375622247737</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,31 +6005,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1493.40122333759</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1293.481213253142</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1293.481213253142</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765183</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="V25" t="n">
-        <v>783.5599953231707</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W25" t="n">
-        <v>494.14282528621</v>
+        <v>714.9354044297399</v>
       </c>
       <c r="X25" t="n">
-        <v>266.1532743881928</v>
+        <v>486.9458535317227</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6227,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>148.5096761832847</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>559.3999450277973</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>454.2145238948144</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>285.2783409669075</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,10 +6400,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
         <v>1387.841167119728</v>
@@ -6412,22 +6412,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247862</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383446</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383446</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>675.0071030383446</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>675.0071030383446</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>454.2145238948144</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,16 +6452,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6470,22 +6470,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215249</v>
+        <v>439.5324299542182</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749888</v>
+        <v>326.357112307682</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440238</v>
+        <v>232.0013381767171</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430016</v>
+        <v>139.8491098756947</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
         <v>997.668872196205</v>
@@ -6634,7 +6634,7 @@
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1447.679123204789</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1447.679123204789</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1214.0228184492</v>
+        <v>902.680428981893</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832553</v>
+        <v>730.4517433652464</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703938</v>
+        <v>565.4200295030871</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6835,16 +6835,16 @@
         <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,16 +6880,16 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010319</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083207</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,22 +7157,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7187,19 +7187,19 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,16 +7351,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7552,28 +7552,28 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7789,64 +7789,64 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010317</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>433.7515527292973</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9249,19 +9249,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>41.75994765618393</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>9.90051268448611</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>62.91120742583814</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>91.23759968302124</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>106.0528325323488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.2531070598578</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>63.0117932855822</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>79.76834915137192</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>192.3581855871792</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>104.5044556556835</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>249.6406542820139</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>72.85408147092876</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.0120931631194</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>111.2945788773627</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457132</v>
@@ -26326,10 +26326,10 @@
         <v>312823.2477901669</v>
       </c>
       <c r="G2" t="n">
+        <v>312823.2477901669</v>
+      </c>
+      <c r="H2" t="n">
         <v>312823.247790167</v>
-      </c>
-      <c r="H2" t="n">
-        <v>312823.2477901668</v>
       </c>
       <c r="I2" t="n">
         <v>312823.2477901669</v>
@@ -26341,13 +26341,13 @@
         <v>325457.7098762157</v>
       </c>
       <c r="L2" t="n">
+        <v>328416.7079457135</v>
+      </c>
+      <c r="M2" t="n">
         <v>328416.7079457134</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>328416.7079457135</v>
-      </c>
-      <c r="N2" t="n">
-        <v>328416.7079457131</v>
       </c>
       <c r="O2" t="n">
         <v>328416.7079457134</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.948563056517049e-10</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="C4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="C4" t="n">
-        <v>147917.0487159208</v>
-      </c>
-      <c r="D4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="E4" t="n">
-        <v>7916.731656007444</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007497</v>
@@ -26433,28 +26433,28 @@
         <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007536</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007536</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020404</v>
+        <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
+        <v>30335.51889732802</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732799</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-492327.2980481617</v>
+        <v>-492327.2980481614</v>
       </c>
       <c r="C6" t="n">
-        <v>97640.58116638284</v>
+        <v>97640.58116638294</v>
       </c>
       <c r="D6" t="n">
-        <v>97640.58116638294</v>
+        <v>97640.58116638297</v>
       </c>
       <c r="E6" t="n">
-        <v>-312240.8462914532</v>
+        <v>-312338.3054174254</v>
       </c>
       <c r="F6" t="n">
-        <v>212919.1901854428</v>
+        <v>212821.7310594706</v>
       </c>
       <c r="G6" t="n">
-        <v>212919.190185443</v>
+        <v>212821.7310594706</v>
       </c>
       <c r="H6" t="n">
-        <v>212919.1901854429</v>
+        <v>212821.7310594707</v>
       </c>
       <c r="I6" t="n">
-        <v>212919.1901854426</v>
+        <v>212821.7310594706</v>
       </c>
       <c r="J6" t="n">
-        <v>36495.97099284978</v>
+        <v>36398.51186687776</v>
       </c>
       <c r="K6" t="n">
-        <v>158585.5418729432</v>
+        <v>158567.0481350088</v>
       </c>
       <c r="L6" t="n">
-        <v>190023.1764274932</v>
+        <v>190023.1764274933</v>
       </c>
       <c r="M6" t="n">
-        <v>65565.06799452289</v>
+        <v>65565.06799452292</v>
       </c>
       <c r="N6" t="n">
-        <v>200366.0832283597</v>
+        <v>200366.0832283601</v>
       </c>
       <c r="O6" t="n">
         <v>200366.0832283601</v>
@@ -26704,13 +26704,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,7 +26753,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26765,10 +26765,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108356</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>36.31002400174737</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>176.8021083056671</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>97.21263156369803</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>101.5057928836587</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>15.21437995945047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>185.7102940379104</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>48.70556238944279</v>
+        <v>48.95472227133635</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>79.5983927958307</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>59.64269278598945</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>133.7458196030339</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>19.33230934126442</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32464,46 +32464,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32543,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,43 +32625,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>766.9461261273101</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>670.927063341192</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36051,7 +36051,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206028</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>83.67012661109058</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187475</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>51.81069163939276</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -36999,16 +36999,16 @@
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>345.2749096669463</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>354.1326152325993</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37555,7 +37555,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37634,16 +37634,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,16 +37868,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>373.6013019241294</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,19 +38105,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>471.2493968713491</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
